--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/F2-F2rl1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/F2-F2rl1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6740386666666667</v>
+        <v>0.754521</v>
       </c>
       <c r="H2">
-        <v>2.022116</v>
+        <v>2.263563</v>
       </c>
       <c r="I2">
-        <v>0.3058319194585966</v>
+        <v>0.2768403531129761</v>
       </c>
       <c r="J2">
-        <v>0.3058319194585966</v>
+        <v>0.2768403531129761</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1341563333333333</v>
+        <v>0.3423083333333334</v>
       </c>
       <c r="N2">
-        <v>0.402469</v>
+        <v>1.026925</v>
       </c>
       <c r="O2">
-        <v>0.02276964089369097</v>
+        <v>0.056115687851804</v>
       </c>
       <c r="P2">
-        <v>0.02276964089369097</v>
+        <v>0.056115687851804</v>
       </c>
       <c r="Q2">
-        <v>0.0904265560448889</v>
+        <v>0.258278825975</v>
       </c>
       <c r="R2">
-        <v>0.813839004404</v>
+        <v>2.324509433775</v>
       </c>
       <c r="S2">
-        <v>0.006963682979900464</v>
+        <v>0.01553508684007096</v>
       </c>
       <c r="T2">
-        <v>0.006963682979900464</v>
+        <v>0.01553508684007096</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6740386666666667</v>
+        <v>0.754521</v>
       </c>
       <c r="H3">
-        <v>2.022116</v>
+        <v>2.263563</v>
       </c>
       <c r="I3">
-        <v>0.3058319194585966</v>
+        <v>0.2768403531129761</v>
       </c>
       <c r="J3">
-        <v>0.3058319194585966</v>
+        <v>0.2768403531129761</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>17.273216</v>
       </c>
       <c r="O3">
-        <v>0.9772303591063091</v>
+        <v>0.943884312148196</v>
       </c>
       <c r="P3">
-        <v>0.9772303591063091</v>
+        <v>0.9438843121481961</v>
       </c>
       <c r="Q3">
-        <v>3.880938493895111</v>
+        <v>4.344334736511999</v>
       </c>
       <c r="R3">
-        <v>34.928446445056</v>
+        <v>39.09901262860799</v>
       </c>
       <c r="S3">
-        <v>0.2988682364786961</v>
+        <v>0.2613052662729052</v>
       </c>
       <c r="T3">
-        <v>0.2988682364786961</v>
+        <v>0.2613052662729052</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9731926666666668</v>
+        <v>0.9731926666666667</v>
       </c>
       <c r="H4">
         <v>2.919578</v>
       </c>
       <c r="I4">
-        <v>0.4415672215387696</v>
+        <v>0.3570728998754956</v>
       </c>
       <c r="J4">
-        <v>0.4415672215387696</v>
+        <v>0.3570728998754956</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1341563333333333</v>
+        <v>0.3423083333333334</v>
       </c>
       <c r="N4">
-        <v>0.402469</v>
+        <v>1.026925</v>
       </c>
       <c r="O4">
-        <v>0.02276964089369097</v>
+        <v>0.056115687851804</v>
       </c>
       <c r="P4">
-        <v>0.02276964089369097</v>
+        <v>0.056115687851804</v>
       </c>
       <c r="Q4">
-        <v>0.1305599597868889</v>
+        <v>0.3331319597388889</v>
       </c>
       <c r="R4">
-        <v>1.175039638082</v>
+        <v>2.99818763765</v>
       </c>
       <c r="S4">
-        <v>0.01005432706486267</v>
+        <v>0.02003739138975177</v>
       </c>
       <c r="T4">
-        <v>0.01005432706486267</v>
+        <v>0.02003739138975177</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9731926666666668</v>
+        <v>0.9731926666666667</v>
       </c>
       <c r="H5">
         <v>2.919578</v>
       </c>
       <c r="I5">
-        <v>0.4415672215387696</v>
+        <v>0.3570728998754956</v>
       </c>
       <c r="J5">
-        <v>0.4415672215387696</v>
+        <v>0.3570728998754956</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,10 +747,10 @@
         <v>17.273216</v>
       </c>
       <c r="O5">
-        <v>0.9772303591063091</v>
+        <v>0.943884312148196</v>
       </c>
       <c r="P5">
-        <v>0.9772303591063091</v>
+        <v>0.9438843121481961</v>
       </c>
       <c r="Q5">
         <v>5.603389046983111</v>
@@ -759,10 +759,10 @@
         <v>50.430501422848</v>
       </c>
       <c r="S5">
-        <v>0.4315128944739069</v>
+        <v>0.3370355084857439</v>
       </c>
       <c r="T5">
-        <v>0.431512894473907</v>
+        <v>0.3370355084857439</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.508125</v>
+        <v>0.7824410000000001</v>
       </c>
       <c r="H6">
-        <v>1.524375</v>
+        <v>2.347323</v>
       </c>
       <c r="I6">
-        <v>0.2305518240420917</v>
+        <v>0.2870844452706686</v>
       </c>
       <c r="J6">
-        <v>0.2305518240420917</v>
+        <v>0.2870844452706686</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1341563333333333</v>
+        <v>0.3423083333333334</v>
       </c>
       <c r="N6">
-        <v>0.402469</v>
+        <v>1.026925</v>
       </c>
       <c r="O6">
-        <v>0.02276964089369097</v>
+        <v>0.056115687851804</v>
       </c>
       <c r="P6">
-        <v>0.02276964089369097</v>
+        <v>0.056115687851804</v>
       </c>
       <c r="Q6">
-        <v>0.06816818687500001</v>
+        <v>0.2678360746416667</v>
       </c>
       <c r="R6">
-        <v>0.613513681875</v>
+        <v>2.410524671775001</v>
       </c>
       <c r="S6">
-        <v>0.005249582240823856</v>
+        <v>0.01610994111791715</v>
       </c>
       <c r="T6">
-        <v>0.005249582240823856</v>
+        <v>0.01610994111791715</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.508125</v>
+        <v>0.7824410000000001</v>
       </c>
       <c r="H7">
-        <v>1.524375</v>
+        <v>2.347323</v>
       </c>
       <c r="I7">
-        <v>0.2305518240420917</v>
+        <v>0.2870844452706686</v>
       </c>
       <c r="J7">
-        <v>0.2305518240420917</v>
+        <v>0.2870844452706686</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>17.273216</v>
       </c>
       <c r="O7">
-        <v>0.9772303591063091</v>
+        <v>0.943884312148196</v>
       </c>
       <c r="P7">
-        <v>0.9772303591063091</v>
+        <v>0.9438843121481961</v>
       </c>
       <c r="Q7">
-        <v>2.92565096</v>
+        <v>4.505090800085333</v>
       </c>
       <c r="R7">
-        <v>26.33085864</v>
+        <v>40.545817200768</v>
       </c>
       <c r="S7">
-        <v>0.2253022418012678</v>
+        <v>0.2709745041527514</v>
       </c>
       <c r="T7">
-        <v>0.2253022418012678</v>
+        <v>0.2709745041527515</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,22 +903,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.048595</v>
+        <v>0.2153186666666667</v>
       </c>
       <c r="H8">
-        <v>0.145785</v>
+        <v>0.645956</v>
       </c>
       <c r="I8">
-        <v>0.02204903496054208</v>
+        <v>0.07900230174085969</v>
       </c>
       <c r="J8">
-        <v>0.02204903496054208</v>
+        <v>0.07900230174085969</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -927,28 +927,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.1341563333333333</v>
+        <v>0.3423083333333334</v>
       </c>
       <c r="N8">
-        <v>0.402469</v>
+        <v>1.026925</v>
       </c>
       <c r="O8">
-        <v>0.02276964089369097</v>
+        <v>0.056115687851804</v>
       </c>
       <c r="P8">
-        <v>0.02276964089369097</v>
+        <v>0.056115687851804</v>
       </c>
       <c r="Q8">
-        <v>0.006519327018333334</v>
+        <v>0.07370537392222223</v>
       </c>
       <c r="R8">
-        <v>0.058673943165</v>
+        <v>0.6633483653000001</v>
       </c>
       <c r="S8">
-        <v>0.0005020486081039807</v>
+        <v>0.004433268504064114</v>
       </c>
       <c r="T8">
-        <v>0.0005020486081039807</v>
+        <v>0.004433268504064114</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.048595</v>
+        <v>0.2153186666666667</v>
       </c>
       <c r="H9">
-        <v>0.145785</v>
+        <v>0.645956</v>
       </c>
       <c r="I9">
-        <v>0.02204903496054208</v>
+        <v>0.07900230174085969</v>
       </c>
       <c r="J9">
-        <v>0.02204903496054208</v>
+        <v>0.07900230174085969</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +995,22 @@
         <v>17.273216</v>
       </c>
       <c r="O9">
-        <v>0.9772303591063091</v>
+        <v>0.943884312148196</v>
       </c>
       <c r="P9">
-        <v>0.9772303591063091</v>
+        <v>0.9438843121481961</v>
       </c>
       <c r="Q9">
-        <v>0.2797973105066666</v>
+        <v>1.239748612721778</v>
       </c>
       <c r="R9">
-        <v>2.51817579456</v>
+        <v>11.157737514496</v>
       </c>
       <c r="S9">
-        <v>0.0215469863524381</v>
+        <v>0.07456903323679558</v>
       </c>
       <c r="T9">
-        <v>0.0215469863524381</v>
+        <v>0.07456903323679559</v>
       </c>
     </row>
   </sheetData>
